--- a/data/long_razon/P18_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_5-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-61,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-86,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>110,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-74,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-76,14; -39,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 90,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 57,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-93,26; -74,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,94; 229,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 112,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,29; -63,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 114,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 62,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-60,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-81,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>107,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-72,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,74; -31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 111,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 114,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,39; -67,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,5; 222,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,96; -61,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 120,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 31,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-78,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-55,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-67,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-87,8; -65,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,33; 192,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 38,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,15; -38,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,33; 141,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 21,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,39; -55,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,53; 139,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 19,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-66,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>139,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-67,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,85; -53,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,55; 253,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 34,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,32; -55,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 128,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 35,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,07; -58,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,99; 149,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 23,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-61,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-57,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-59,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-75,29; -45,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 146,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 57,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-71,71; -39,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 135,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 35,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-69,85; -47,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,33; 117,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 34,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-58,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-56,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-57,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,17; -33,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 117,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 47,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,48; -34,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 125,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 88,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,68; -41,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 90,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 47,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-66,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-66,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-71,92; -59,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,63; 94,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 27,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-71,79; -60,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,37; 103,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 16,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-70,6; -62,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,62; 88,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 17,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P18_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_5-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6264012544003391</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1039333623920243</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.07734615026281622</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1704340329742668</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9871466355354559</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.8755135451584464</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.211587924206023</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.2699426782334435</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.02918344029400743</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.08956136916227278</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.7567166516597313</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5420015062027079</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.1665032511387296</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.08461359983615317</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.3624855986950326</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.766570490090097</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3539798855416087</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3297056558706671</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6333737523696183</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.02252837293882665</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.9402326538350756</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.4644158358421027</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1287434884357453</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3605094657776474</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5082152752888858</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.832597168260351</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.1195717630718792</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1452154204369448</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.3779170121702453</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.1522750282020685</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.395362716641789</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7230227029144107</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6853676128756371</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9866539278693989</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.591005162581904</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.7792233250800051</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.661783360893105</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.9298828806575753</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.522983473700148</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.6586428774873521</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.6464095575272544</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.160407216164947</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.60009115997873</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.3219011005634332</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.197421404765095</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.5698713358316343</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.183035142110811</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.309143368360914</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1691184646826625</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2955326662308365</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.8096353827280001</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.033353504343326</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.2727685643812551</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.5453693127515665</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.0622156124072946</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.7124542521373887</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.5503990832515301</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.007655042658981805</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.1304404280132453</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.1778064749332675</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.746795426664249</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3918589778346214</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2830019181707204</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6424658812336819</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7445379397769458</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.8969597188155801</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.3476631608884695</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4702940077767132</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.01571582021935072</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3812566826683926</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.8063951613689362</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.01130282150580497</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.3058523079694929</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2759098475836825</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4779563432917384</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.2258188684672749</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.187462704265121</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.117463237081541</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6006705184268427</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6364909247055809</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.6918628190357068</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.156186841340396</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.005801501462468925</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.378554846331851</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3988268436027401</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.5734150807354162</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.12423546191568</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.3080235533440085</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.7007907645144562</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.2912380635720097</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.8028353331692294</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9513944217069005</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.02586109450002678</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4004785652019157</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2081559446615114</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.5757133028472329</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.8092627790514925</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.05189935300240933</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.01906808308697464</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4347375499984087</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.6965951073949739</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.8725331138865328</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.01678889821500214</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.1664859225714593</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.3121800969503196</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.8865272999836422</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3286746894581571</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3062884312657885</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.09583824072579551</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.260013393971409</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.6852779326486883</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.3351017523654657</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2793848603649682</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2849982081593357</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.06126006301162219</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.7673646535480909</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.4589979661694665</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.2066556346324522</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1090116395219188</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.07622403996583754</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.6901826331210372</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.939337577222627</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4958107119952471</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.067251690684262</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.022300443456457</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.4312624729302921</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.386590616321732</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.229609784910798</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3172847026677677</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.287356365718437</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.6043723504660884</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.408857652450372</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2179200539962941</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.513895100783696</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.8167728915768394</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.6500330356411219</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.33500372507897</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.04186604566317628</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1570718214453045</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9674378239679653</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.6699555258243685</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.6734218833099153</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.020499305700992</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.08705709871132439</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.0781517693266852</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.6603943233272462</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.9562191736011147</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.01155223096466391</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.1225048048191699</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.331127350996836</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.752316029735529</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.6356245811123106</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.300006188124261</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2446194976612062</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.23038124894082</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.7619453689230605</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2455530649280605</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2373690785333163</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2336284578647333</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3803220615638941</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.7295592237564404</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.5458846935519542</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2115380566280257</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.1279157794753089</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.01076756429715116</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.5101658308991582</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.300724050692233</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2873618338226401</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.8605172184360896</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.520361349770591</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.540432340124709</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.250118061689827</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.322367762986434</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5349298768528877</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.364535865008882</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.567139713410831</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.46112777001446</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2168993980789999</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.5504621175174909</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.8034227956518111</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.6198934481823528</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7246228945895326</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1403917292882735</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.2969447716980984</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.122246056982654</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.5789778115374816</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.5705910334213917</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.01944375051515454</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.01254868774414203</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.03981147826086303</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.6004865934852207</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.6499214492506904</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.0770750423392509</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.1680309413294152</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.4172204851863743</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.7543059196226035</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.2164305270008486</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.1814107382332306</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.51776396917269</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.2634128618738097</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.717206040244963</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.06925123600570537</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2625655755515735</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3219048211635152</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.3311898349472184</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.7018627706565436</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.2785954432083437</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.1408154236815519</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.3685456383550715</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0.001789370632188055</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>-0.4309461124101138</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.504815621161416</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.5295712873469278</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.05144830104301134</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>3.348344593519768</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-0.3854735877709284</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.319519509169108</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.3914760162667441</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.5264610529278079</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.6386803834039244</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.4882814147426597</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.132712886424552</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3109523520282743</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.1076482054194463</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>1.046042556528245</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.5344657944942299</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.3470448711883178</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.02983123451154885</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.0369347043560292</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.2632059382534772</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.524953926107758</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.5458173372772218</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.3172445142488826</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.4220427479226772</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.3397654577321869</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.5286319112503273</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4711381500718677</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.171753481467572</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.2506984817091425</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.3072387560195595</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.709153353361345</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.2068925011423198</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.2944129514276032</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.3861685508128799</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.2304817354882421</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.6858527145045772</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.01040643383774213</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.08438928605066477</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.07966536354889711</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3014616790701771</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.657138209527342</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.08574507803610608</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.1148251667261484</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.1275999504546417</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.1267336585866062</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>-0.2731854016517461</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.345259712515928</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.5548272471720403</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.8429625691644609</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.408877608879608</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-0.2861347404921282</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.281546834543424</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.9566096996074743</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.306352850440659</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>1.538826380209062</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>-0.3534017367128884</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.047763568866637</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.5241169627381335</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.7926490481880752</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>1.015486481460827</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.6537734124041027</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5918960055423141</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.08196675610051282</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.001594383578818204</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.397920713042364</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.666586783525003</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.7702454579340606</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.03210395414453613</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.1455836805174493</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.09900881489776163</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.6605516830625949</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.6840122489518817</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.05646095874057677</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.07591595808396448</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.2317321235388639</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.7106176986831595</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3043461293135441</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.07903397905505782</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1898722577654322</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.06604769932771634</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.7192705421327051</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.5224488030902791</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.09516960624074265</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.01786963470340678</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1103628855240676</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.6983116710282394</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.4842978379232997</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.04250159616608454</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.0671524325557816</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.05145415038657688</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.5877335300559339</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9513110681580246</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2699225167680001</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.27014898279917</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8180310325708212</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.6021603163584749</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1.063745753105028</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.1807527344095808</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.345242263414783</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.3504765719006781</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.616354780747934</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.8937539648616258</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.1788933612043677</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.2357647766281702</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.454804524275033</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
